--- a/meta/resourcebundle/BlancoResourceBundleSample.xlsx
+++ b/meta/resourcebundle/BlancoResourceBundleSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoResourceBundle/meta/resourcebundle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FDCF66-B739-8442-8386-4CA9429A8327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3146A39-5657-EA44-8AE2-36793273CD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="2500" windowWidth="19680" windowHeight="15020" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -208,13 +208,43 @@
       <t xml:space="preserve">バンメ </t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Introspected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>インポートクラス名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>io.micronaut.core.annotation.Introspected</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リソースバンドル定義・インポート</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テイスウ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -239,8 +269,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +302,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -532,13 +593,235 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -627,6 +910,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -944,10 +1267,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -960,7 +1283,7 @@
     <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19">
+    <row r="1" spans="1:10" ht="19">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -968,17 +1291,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1309,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1320,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1344,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9" s="35" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1357,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1045,142 +1368,166 @@
       <c r="D10" s="5"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+    <row r="11" spans="1:10" s="44" customFormat="1">
+      <c r="A11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" s="44" customFormat="1">
+      <c r="A13" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:10" s="44" customFormat="1">
+      <c r="A14" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" s="44" customFormat="1">
+      <c r="A15" s="53">
+        <v>1</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" s="44" customFormat="1">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="57"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" s="44" customFormat="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="57"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" s="44" customFormat="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A20" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C20" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="28">
+      <c r="D20" s="39"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="28">
         <v>1</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="28">
-        <v>2</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="28"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="28"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="28"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="28"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="20"/>
+    <row r="23" spans="1:10">
+      <c r="A23" s="28">
+        <v>2</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:10">
       <c r="A24" s="28"/>
       <c r="B24" s="23"/>
       <c r="C24" s="20"/>
@@ -1189,7 +1536,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:10">
       <c r="A25" s="28"/>
       <c r="B25" s="23"/>
       <c r="C25" s="20"/>
@@ -1198,7 +1545,7 @@
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:10">
       <c r="A26" s="28"/>
       <c r="B26" s="23"/>
       <c r="C26" s="20"/>
@@ -1207,7 +1554,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:10">
       <c r="A27" s="28"/>
       <c r="B27" s="23"/>
       <c r="C27" s="20"/>
@@ -1216,7 +1563,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:10">
       <c r="A28" s="28"/>
       <c r="B28" s="23"/>
       <c r="C28" s="20"/>
@@ -1225,16 +1572,16 @@
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:10">
       <c r="A29" s="28"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:10">
       <c r="A30" s="28"/>
       <c r="B30" s="23"/>
       <c r="C30" s="20"/>
@@ -1243,8 +1590,8 @@
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="29"/>
+    <row r="31" spans="1:10">
+      <c r="A31" s="28"/>
       <c r="B31" s="23"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
@@ -1252,8 +1599,8 @@
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="29"/>
+    <row r="32" spans="1:10">
+      <c r="A32" s="28"/>
       <c r="B32" s="23"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
@@ -1262,23 +1609,86 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="28"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="28"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="28"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="28"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="29"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="29"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="30"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
     </dataValidation>
   </dataValidations>
